--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E8" s="3">
         <v>237100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>484600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>270400</v>
       </c>
-      <c r="G8" s="3">
-        <v>301400</v>
-      </c>
       <c r="H8" s="3">
+        <v>266700</v>
+      </c>
+      <c r="I8" s="3">
         <v>247200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>499500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>275600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>205600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>159700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>145200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>158200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E9" s="3">
         <v>162600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>328300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>196500</v>
       </c>
-      <c r="G9" s="3">
-        <v>209300</v>
-      </c>
       <c r="H9" s="3">
+        <v>176700</v>
+      </c>
+      <c r="I9" s="3">
         <v>167100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>344400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>199300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E10" s="3">
         <v>74500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>156300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>73900</v>
       </c>
-      <c r="G10" s="3">
-        <v>92100</v>
-      </c>
       <c r="H10" s="3">
+        <v>90000</v>
+      </c>
+      <c r="I10" s="3">
         <v>80100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>155100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>76300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-7800</v>
       </c>
-      <c r="G14" s="3">
-        <v>6600</v>
-      </c>
       <c r="H14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,10 +1048,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1040,8 +1062,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E17" s="3">
         <v>246100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>454900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>258700</v>
       </c>
-      <c r="G17" s="3">
-        <v>295100</v>
-      </c>
       <c r="H17" s="3">
+        <v>256400</v>
+      </c>
+      <c r="I17" s="3">
         <v>238700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>496700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>289000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>210600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>161700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11700</v>
       </c>
-      <c r="G18" s="3">
-        <v>6300</v>
-      </c>
       <c r="H18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E21" s="3">
         <v>7800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32400</v>
       </c>
-      <c r="G21" s="3">
-        <v>27600</v>
-      </c>
       <c r="H21" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
         <v>11800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
-        <v>44500</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-1700</v>
       </c>
       <c r="P24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-51200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-51200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,37 +1632,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-84700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-22900</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>30200</v>
-      </c>
       <c r="H29" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1300</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-112300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-112300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E41" s="3">
         <v>69200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E43" s="3">
         <v>203700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>250400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>167200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>192100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>199800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>198200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>223900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>133000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E44" s="3">
         <v>151700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>227000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>218000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>143700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>226000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>244200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>253700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>244900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>180300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>147900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>149600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E45" s="3">
         <v>57200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>268700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>85200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>575100</v>
+      </c>
+      <c r="E46" s="3">
         <v>481900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>573200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>574600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>648000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>574700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>583700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>647400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>638400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>429100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>398500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>367500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>370500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E48" s="3">
         <v>197200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>222600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>189700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>215200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>217500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>217500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>99000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>99300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>99700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>657400</v>
+      </c>
+      <c r="E49" s="3">
         <v>752800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>872700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>883300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1332200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>975400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>980000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1017200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1019100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>340700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>342100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>340100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>342400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E52" s="3">
         <v>36200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>8100</v>
       </c>
       <c r="O52" s="3">
         <v>8100</v>
       </c>
       <c r="P52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1470900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1468100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1712700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1719300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1791600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1812900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1835900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1928100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1906800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>879000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>849200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>815000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>820800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,69 +2749,73 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E57" s="3">
         <v>90300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>122300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>94700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>111400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>115800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2693,14 +2826,14 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>5000</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>5000</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2708,184 +2841,199 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E59" s="3">
         <v>153500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>126700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>181500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>138900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>198600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E60" s="3">
         <v>244200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>256400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>249100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>284100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>250300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>252600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>317100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>322500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>130900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>117700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E61" s="3">
         <v>643100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>731100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>734700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>778200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>802100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>819800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>815800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>787300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>264000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>247900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>243000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>251200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E62" s="3">
         <v>205400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>230300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>186400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>189500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>203200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>195000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1079500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1092700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1217800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1203200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1262600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1238700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1261900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1336000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1304800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>427100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>411100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>399400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>416300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E72" s="3">
         <v>97700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>210100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>228600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>232100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>253100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>259900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>254000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>274200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>280400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>277500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>269100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>265500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391400</v>
+      </c>
+      <c r="E76" s="3">
         <v>375400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>494900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>516200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>529000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>574200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>574000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>592100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>602000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>451900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>438100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>415500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>404400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-112300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E83" s="3">
         <v>16100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>36500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>75700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>75500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>79600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-496100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4176,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-600</v>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-89100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-58700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>520500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>158700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>192200</v>
+      </c>
+      <c r="F8" s="3">
         <v>242600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>237100</v>
       </c>
-      <c r="F8" s="3">
-        <v>484600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>270400</v>
-      </c>
       <c r="H8" s="3">
+        <v>245800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>238900</v>
+      </c>
+      <c r="J8" s="3">
         <v>266700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>247200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>499500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>275600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>205600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>159700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>151200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>145200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>158200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F9" s="3">
         <v>164600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>162600</v>
       </c>
-      <c r="F9" s="3">
-        <v>328300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>196500</v>
-      </c>
       <c r="H9" s="3">
+        <v>163900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>164400</v>
+      </c>
+      <c r="J9" s="3">
         <v>176700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>167100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>344400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>199300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>146400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>112400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>103600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>98600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>109100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F10" s="3">
         <v>78000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>74500</v>
       </c>
-      <c r="F10" s="3">
-        <v>156300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>73900</v>
-      </c>
       <c r="H10" s="3">
+        <v>81900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>74500</v>
+      </c>
+      <c r="J10" s="3">
         <v>90000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>80100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>155100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>76300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>59200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>47300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>47600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>46600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>49100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,75 +1023,87 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>23500</v>
       </c>
-      <c r="F14" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I14" s="3">
         <v>-7800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>12400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1065,11 +1111,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>265600</v>
+      </c>
+      <c r="F17" s="3">
         <v>225600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>246100</v>
       </c>
-      <c r="F17" s="3">
-        <v>454900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>258700</v>
-      </c>
       <c r="H17" s="3">
+        <v>233700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>221100</v>
+      </c>
+      <c r="J17" s="3">
         <v>256400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>238700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>496700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>289000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>210600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>152800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>139800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>137900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>161700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="F18" s="3">
         <v>17000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
-        <v>29700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11700</v>
-      </c>
       <c r="H18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1278,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1900</v>
-      </c>
       <c r="H20" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F21" s="3">
         <v>32100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7800</v>
       </c>
-      <c r="F21" s="3">
-        <v>68300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>32400</v>
-      </c>
       <c r="H21" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>51900</v>
+      </c>
+      <c r="J21" s="3">
         <v>31800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>47400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>17100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>14000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>11800</v>
       </c>
-      <c r="F22" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>13200</v>
-      </c>
       <c r="H22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J22" s="3">
         <v>13300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>25600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="F23" s="3">
         <v>4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20100</v>
       </c>
-      <c r="F23" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5100</v>
-      </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J24" s="3">
         <v>13900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-27600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-16500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-27600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-17400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,43 +1751,49 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-84700</v>
       </c>
-      <c r="F29" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J29" s="3">
         <v>25700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-2900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-112300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-112300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>170900</v>
+      </c>
+      <c r="F41" s="3">
         <v>84500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>76100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>73600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>71300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>69000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>123300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>110400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>75600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>77300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>65700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>58300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2328,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>180300</v>
+      </c>
+      <c r="F43" s="3">
         <v>178200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>203700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>235900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>250400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>167200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>192100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>199800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>198200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>223900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>130200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>121200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>120300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>133000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>147200</v>
+      </c>
+      <c r="F44" s="3">
         <v>137300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>151700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>227000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>218000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>143700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>226000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>244200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>253700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>244900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>180300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>161800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>147900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>149600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F45" s="3">
         <v>175100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>57200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>34200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>32600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>268700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>85200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>70700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>72200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>43100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>38300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>33500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>548000</v>
+      </c>
+      <c r="F46" s="3">
         <v>575100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>481900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>573200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>574600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>648000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>574700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>583700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>647400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>638400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>429100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>398500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>367500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>370500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2593,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>166600</v>
+      </c>
+      <c r="F48" s="3">
         <v>193000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>197200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>222600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>223100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>189700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>215200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>217500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>226400</v>
       </c>
       <c r="L48" s="3">
         <v>217500</v>
       </c>
       <c r="M48" s="3">
+        <v>226400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>217500</v>
+      </c>
+      <c r="O48" s="3">
         <v>99000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>98400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>99300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>99700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>519700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>519400</v>
+      </c>
+      <c r="F49" s="3">
         <v>657400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>752800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>872700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>883300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1332200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>975400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>980000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1017200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1019100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>340700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>342100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>340100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>342400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F52" s="3">
         <v>45400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>36200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>44200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>63000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>47600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>54700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>37100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>31700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1309100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1470900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1468100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1712700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1719300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1791600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1812900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1835900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1928100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1906800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>879000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>849200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>815000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>820800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,78 +3010,86 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F57" s="3">
         <v>79400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>90300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>118600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>122300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>94700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>111400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>115800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>118400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>117300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>63700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>63900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>51400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>46800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2829,211 +3097,241 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>156100</v>
+      </c>
+      <c r="F59" s="3">
         <v>156500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>153500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>137100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>126700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>181500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>138900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>136800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>198600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>205200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>65500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>62000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>71100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>71000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>232400</v>
+      </c>
+      <c r="F60" s="3">
         <v>236400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>244200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>256400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>249100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>284100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>250300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>252600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>317100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>322500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>134200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>130900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>122500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>117700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>578600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>589000</v>
+      </c>
+      <c r="F61" s="3">
         <v>639000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>643100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>731100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>734700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>778200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>802100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>819800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>815800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>787300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>264000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>247900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>243000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>251200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>196800</v>
+      </c>
+      <c r="F62" s="3">
         <v>204100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>205400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>230300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>219300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>200400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>186400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>189500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>203200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>195000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>28900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>32400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>33900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>47400</v>
       </c>
       <c r="Q62" s="3">
         <v>33900</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1018200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1079500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1092700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1217800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1203200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1262600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1238700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1261900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1336000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1304800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>427100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>411100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>399400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>416300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F72" s="3">
         <v>99300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>97700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>210100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>228600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>232100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>253100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>259900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>254000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>274200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>280400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>277500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>269100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>265500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>290800</v>
+      </c>
+      <c r="F76" s="3">
         <v>391400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>375400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>494900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>516200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>529000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>574200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>574000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>592100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>602000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>451900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>438100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>415500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>404400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-112300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F83" s="3">
         <v>17000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>16100</v>
       </c>
-      <c r="F83" s="3">
-        <v>36500</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I83" s="3">
         <v>18800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>19300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>6800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>6700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>6900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F89" s="3">
         <v>16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-22400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>30500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>24100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-16900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>20400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>75700</v>
       </c>
-      <c r="F94" s="3">
-        <v>75500</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I94" s="3">
         <v>79600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-496100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4412,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-600</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-89100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-58700</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-53100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-26300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-29700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>520500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>15200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>158700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
-        <v>800</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F102" s="3">
         <v>15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-41500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>12900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>34700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E8" s="3">
         <v>186100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>192200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>242600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>237100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>245800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>266700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>247200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>499500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>275600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>205600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>159700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>151200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>145200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>158200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E9" s="3">
         <v>127100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>164600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>162600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>163900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>164400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>176700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>167100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>344400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>199300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>103600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E10" s="3">
         <v>59000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>90000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>155100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>46600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>73900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-7800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,8 +1116,8 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1103,10 +1126,10 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1117,8 +1140,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E17" s="3">
         <v>187500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>265600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>225600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>246100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>233700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>221100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>256400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>238700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>496700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>289000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>210600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>137900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>161700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-73400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>25900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-55000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>55700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-79700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5600</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-1700</v>
       </c>
       <c r="S24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E26" s="3">
         <v>9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-88100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E27" s="3">
         <v>9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-88100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,46 +1815,49 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-43800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>9200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-84700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-17200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-5700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>25700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-25900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-78900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-112300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-78900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-112300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E41" s="3">
         <v>125400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>170900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>73600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>77300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,243 +2424,258 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E43" s="3">
         <v>184600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>180300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>178200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>203700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>235900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>250400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>167200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>192100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>199800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>198200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>223900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>121200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>120300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>133000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E44" s="3">
         <v>148400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>147200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>137300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>151700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>227000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>218000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>143700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>226000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>244200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>253700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>244900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>180300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>161800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>147900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>149600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>268700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>418500</v>
+      </c>
+      <c r="E46" s="3">
         <v>485900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>548000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>575100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>481900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>573200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>574600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>648000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>574700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>583700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>647400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>638400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>429100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>398500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>367500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>370500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>9600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E48" s="3">
         <v>167200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>166600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>193000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>197200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>222600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>223100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>189700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>215200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>217500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>217500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>99000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E49" s="3">
         <v>519700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>657400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>752800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>872700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>883300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1332200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>975400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>980000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1017200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1019100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>340700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>342100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>340100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>342400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E52" s="3">
         <v>87500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>8100</v>
       </c>
       <c r="R52" s="3">
         <v>8100</v>
       </c>
       <c r="S52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1145200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1260400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1309100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1470900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1468100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1712700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1719300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1791600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1812900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1835900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1928100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1906800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>879000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>849200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>815000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>820800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E57" s="3">
         <v>68200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>122300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>94700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>115800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>118400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,23 +3210,23 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7900</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3103,14 +3237,14 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>5000</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>5000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3118,220 +3252,235 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E59" s="3">
         <v>130000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>153500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>137100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>126700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>181500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>205200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E60" s="3">
         <v>198200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>232400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>236400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>244200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>256400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>249100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>284100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>250300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>252600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>317100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>322500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>134200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>130900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>122500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>117700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>527700</v>
+      </c>
+      <c r="E61" s="3">
         <v>578600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>589000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>639000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>643100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>731100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>734700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>778200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>802100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>819800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>815800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>787300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>264000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>247900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>243000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>251200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E62" s="3">
         <v>210200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>196800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>204100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>205400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>230300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>219300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>186400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>189500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>203200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>195000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>924400</v>
+      </c>
+      <c r="E66" s="3">
         <v>987000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1018200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1079500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1092700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1217800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1203200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1262600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1238700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1261900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1336000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1304800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>427100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>411100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>399400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>416300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>99300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>97700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>210100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>228600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>232100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>253100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>259900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>254000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>274200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>280400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>277500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>269100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>265500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E76" s="3">
         <v>273400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>290800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>375400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>494900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>516200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>529000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>574200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>574000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>592100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>602000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>451900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>438100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>415500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>404400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-78900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-112300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>167000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>75700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>79600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-496100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4886,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-600</v>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-51400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-89100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>520500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>158700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>86200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E8" s="3">
         <v>186600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>192200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>242600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>237100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>245800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>247200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>499500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>275600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>205600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>159700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>151200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>145200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>158200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E9" s="3">
         <v>130600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>164600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>162600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>163900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>164400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>176700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>167100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>344400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>199300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>103600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E10" s="3">
         <v>56000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>80100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>155100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>46600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>73900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,8 +1141,8 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1129,10 +1151,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1143,8 +1165,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198400</v>
+      </c>
+      <c r="E17" s="3">
         <v>182200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>187500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>265600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>246100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>233700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>221100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>256400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>238700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>496700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>289000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>210600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>152800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>137900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>161700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-73400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E21" s="3">
         <v>19400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-55000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>55700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-79700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E24" s="3">
         <v>54300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-21800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-1700</v>
       </c>
       <c r="T24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-88100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-88100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,49 +1875,52 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-43800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>9200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-84700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-17200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>25700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1300</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-78900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-112300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-78900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-112300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E41" s="3">
         <v>72800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>170900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>73600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,259 +2516,274 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E43" s="3">
         <v>174800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>184600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>180300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>178200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>203700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>235900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>250400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>167200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>192100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>199800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>198200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>223900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>121200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>120300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>133000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E44" s="3">
         <v>144500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>148400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>147200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>137300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>151700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>227000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>218000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>143700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>226000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>244200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>253700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>244900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>180300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>161800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>147900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>149600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>175100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>268700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>406600</v>
+      </c>
+      <c r="E46" s="3">
         <v>418500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>485900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>548000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>575100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>481900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>573200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>574600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>648000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>574700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>583700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>647400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>638400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>429100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>398500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>367500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>370500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9600</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -2707,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E48" s="3">
         <v>167000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>166600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>193000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>197200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>222600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>223100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>189700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>215200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>217500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>217500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>99000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>98400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>99700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>512500</v>
+      </c>
+      <c r="E49" s="3">
         <v>515200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>519400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>657400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>752800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>872700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>883300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1332200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>975400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>980000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1017200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1019100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>340700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>342100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>340100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>342400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34900</v>
+        <v>42700</v>
       </c>
       <c r="E52" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F52" s="3">
         <v>87500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>45400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>8100</v>
       </c>
       <c r="S52" s="3">
         <v>8100</v>
       </c>
       <c r="T52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1130500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1145200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1260400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1309100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1470900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1468100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1712700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1719300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1791600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1812900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1835900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1928100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1906800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>879000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>849200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>815000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>820800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E57" s="3">
         <v>64000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>122300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>115800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>118400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,23 +3346,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3240,14 +3373,14 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>5000</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>5000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3255,232 +3388,247 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E59" s="3">
         <v>113700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>153500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>137100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>126700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>181500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E60" s="3">
         <v>177700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>232400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>236400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>244200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>256400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>249100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>284100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>250300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>252600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>317100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>322500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>134200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>130900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>122500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>117700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E61" s="3">
         <v>527700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>578600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>589000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>639000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>643100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>731100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>734700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>778200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>802100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>819800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>815800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>787300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>264000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>247900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>243000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>251200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E62" s="3">
         <v>219000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>210200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>196800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>204100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>205400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>230300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>219300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>186400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>189500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>203200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>195000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>924500</v>
+      </c>
+      <c r="E66" s="3">
         <v>924400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>987000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1018200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1079500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1092700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1217800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1203200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1262600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1238700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1261900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1336000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1304800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>427100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>411100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>399400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>416300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>97700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>210100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>228600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>232100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>253100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>259900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>254000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>274200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>280400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>277500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>269100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>265500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E76" s="3">
         <v>220800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>273400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>290800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>391400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>375400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>494900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>516200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>529000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>574200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>574000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>592100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>602000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>451900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>438100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>415500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>404400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-78900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-112300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>167000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>75700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>79600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-496100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5123,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-600</v>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-51600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-89100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>520500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>158700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>86200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E8" s="3">
         <v>208400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>192200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>242600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>237100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>245800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>247200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>499500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>275600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>205600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>159700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>151200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>145200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>158200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E9" s="3">
         <v>140900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>132200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>164600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>162600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>163900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>164400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>176700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>167100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>344400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>199300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>103600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>98600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>109100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E10" s="3">
         <v>67500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>81900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>80100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>155100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>46600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>49100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>73900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1144,8 +1167,8 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1154,10 +1177,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1191,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E17" s="3">
         <v>198400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>182200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>187500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>265600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>233700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>221100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>256400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>238700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>496700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>289000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>210600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>152800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>139800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>137900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>161700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-73400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E21" s="3">
         <v>27400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-55000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-79700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>15300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-1700</v>
       </c>
       <c r="U24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-88100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-88100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,52 +1936,55 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-43800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>9200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-84700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-17200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>25700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1300</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-78900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-112300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-78900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-112300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E41" s="3">
         <v>76500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>170900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>75600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,273 +2609,288 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>173800</v>
+      </c>
+      <c r="E43" s="3">
         <v>170100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>174800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>184600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>180300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>178200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>203700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>235900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>250400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>167200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>199800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>223900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>130200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>120300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>133000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E44" s="3">
         <v>129100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>144500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>148400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>147200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>137300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>151700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>227000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>218000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>143700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>226000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>244200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>253700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>244900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>180300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>161800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>147900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>149600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>57200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>268700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>85200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>72200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>420200</v>
+      </c>
+      <c r="E46" s="3">
         <v>406600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>418500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>485900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>548000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>575100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>481900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>573200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>574600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>648000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>574700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>583700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>647400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>638400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>429100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>398500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>367500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>370500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
+        <v>13700</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E48" s="3">
         <v>168800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>166600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>193000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>197200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>222600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>223100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>189700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>215200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>217500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>217500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>98400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>99300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>99700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>494800</v>
+      </c>
+      <c r="E49" s="3">
         <v>512500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>515200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>519700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>519400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>657400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>752800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>872700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>883300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1332200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>975400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>980000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1017200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1019100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>340700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>342100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>340100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>342400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E52" s="3">
         <v>42700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>45400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>47600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>8100</v>
       </c>
       <c r="T52" s="3">
         <v>8100</v>
       </c>
       <c r="U52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="V52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1123200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1130500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1145200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1260400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1309100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1470900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1468100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1712700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1719300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1791600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1812900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1835900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1928100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1906800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>879000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>849200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>815000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>820800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E57" s="3">
         <v>61200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>122300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>94700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>115800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3349,23 +3483,23 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3376,14 +3510,14 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>5000</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>5000</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3391,244 +3525,259 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E59" s="3">
         <v>104000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>153500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>137100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>181500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>205200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E60" s="3">
         <v>165200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>177700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>232400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>236400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>244200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>256400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>249100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>284100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>250300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>252600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>317100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>322500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>134200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>130900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>122500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>117700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>525600</v>
+      </c>
+      <c r="E61" s="3">
         <v>507900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>527700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>578600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>589000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>639000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>643100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>731100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>734700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>778200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>802100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>819800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>815800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>787300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>264000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>243000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>251200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E62" s="3">
         <v>251400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>210200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>196800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>204100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>205400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>230300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>186400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>189500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>203200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>195000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>927100</v>
+      </c>
+      <c r="E66" s="3">
         <v>924500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>924400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>987000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1018200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1079500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1092700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1217800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1203200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1262600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1238700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1261900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1336000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1304800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>427100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>411100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>399400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>416300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-86500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>99300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>97700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>210100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>228600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>232100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>253100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>259900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>254000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>274200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>280400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>277500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>269100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>265500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E76" s="3">
         <v>206000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>220800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>273400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>290800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>391400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>375400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>494900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>529000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>574200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>574000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>592100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>602000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>451900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>438100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>415500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>404400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-78900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-112300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E83" s="3">
         <v>16700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E89" s="3">
         <v>23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>167000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>75700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>79600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-496100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5359,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-600</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-51600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-89100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>520500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>158700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>86200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-26700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E8" s="3">
         <v>180700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>208400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>192200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>242600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>237100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>245800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>238900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>266700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>247200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>499500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>275600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>205600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>159700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>151200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>145200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>158200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E9" s="3">
         <v>124600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>130600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>132200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>164600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>164400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>176700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>167100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>344400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>199300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>103600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>98600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>109100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E10" s="3">
         <v>56100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>74500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>80100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>155100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>46600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>49100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>73900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,8 +1192,8 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1180,10 +1202,10 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1194,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E17" s="3">
         <v>180300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>198400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>182200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>187500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>265600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>225600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>246100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>233700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>221100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>256400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>238700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>496700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>289000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>210600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>152800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>137900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>161700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-73400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E21" s="3">
         <v>19100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-55000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>47400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-79700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5600</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1700</v>
       </c>
       <c r="V24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-88100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-88100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,55 +1996,58 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-43800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>9200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-84700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-17200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>25700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1300</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-112300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-112300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E41" s="3">
         <v>75700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>123300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>75600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,264 +2701,279 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E43" s="3">
         <v>173800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>170100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>174800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>180300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>178200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>203700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>235900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>250400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>167200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>199800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>198200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>223900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>130200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>121200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>120300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>133000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E44" s="3">
         <v>135300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>129100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>144500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>148400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>147200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>137300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>151700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>227000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>218000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>143700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>226000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>244200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>253700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>244900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>180300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>161800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>147900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>149600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E45" s="3">
         <v>35500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>268700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>85200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>414500</v>
+      </c>
+      <c r="E46" s="3">
         <v>420200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>406600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>418500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>485900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>548000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>575100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>481900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>573200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>574600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>648000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>574700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>583700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>647400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>638400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>429100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>398500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>367500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>370500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E47" s="3">
         <v>13700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2886,14 +2990,14 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E48" s="3">
         <v>163400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>168800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>166600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>193000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>197200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>222600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>223100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>189700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>215200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>217500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>226400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>217500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>98400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>99300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>99700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>485700</v>
+      </c>
+      <c r="E49" s="3">
         <v>494800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>512500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>515200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>519700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>519400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>657400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>752800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>872700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>883300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1332200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>975400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>980000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1017200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1019100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>340700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>342100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>340100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>342400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E52" s="3">
         <v>31100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>44500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>45400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>47600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>8100</v>
       </c>
       <c r="U52" s="3">
         <v>8100</v>
       </c>
       <c r="V52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="W52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1123200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1130500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1145200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1260400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1309100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1470900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1468100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1712700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1719300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1791600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1812900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1835900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1928100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1906800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>879000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>849200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>815000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>820800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E57" s="3">
         <v>67100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>90300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>118600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>122300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>94700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>115800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>63900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3486,23 +3619,23 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3513,14 +3646,14 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>5000</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>5000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3528,256 +3661,271 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E59" s="3">
         <v>98400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>153500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>137100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>126700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>181500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>205200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>62000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>71000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E60" s="3">
         <v>165500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>165200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>177700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>198200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>232400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>236400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>244200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>256400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>249100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>284100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>250300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>252600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>317100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>322500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>134200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>130900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>122500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>117700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>512400</v>
+      </c>
+      <c r="E61" s="3">
         <v>525600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>507900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>527700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>578600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>589000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>639000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>643100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>731100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>734700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>778200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>802100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>819800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>815800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>787300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>264000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>243000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>251200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E62" s="3">
         <v>236000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>251400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>210200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>196800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>204100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>205400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>230300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>186400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>189500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>203200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>195000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E66" s="3">
         <v>927100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>924500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>924400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>987000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1018200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1079500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1092700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1217800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1203200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1262600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1238700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1261900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1304800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>427100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>411100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>399400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>416300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-93600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>99300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>97700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>210100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>228600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>232100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>253100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>259900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>254000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>274200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>280400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>277500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>269100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>265500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E76" s="3">
         <v>196100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>206000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>220800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>273400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>290800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>375400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>494900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>516200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>529000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>574200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>574000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>592100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>602000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>451900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>438100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>415500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>404400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-112300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E83" s="3">
         <v>17200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>167000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>75700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-496100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5596,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-600</v>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E100" s="3">
         <v>13900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-51400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-89100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>520500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>158700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>86200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-41500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-26700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E8" s="3">
         <v>190300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>180700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>208400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>186100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>192200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>242600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>237100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>245800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>266700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>247200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>499500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>275600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>205600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>159700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>151200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>145200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>158200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>130500</v>
+        <v>130100</v>
       </c>
       <c r="E9" s="3">
+        <v>129500</v>
+      </c>
+      <c r="F9" s="3">
         <v>124600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>130600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>132200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>164600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>164400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>176700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>167100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>344400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>199300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>146400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>103600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>98600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>109100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59800</v>
+        <v>60700</v>
       </c>
       <c r="E10" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F10" s="3">
         <v>56100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>74500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>155100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>46600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>49100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1123,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>23500</v>
+      </c>
+      <c r="M14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S14" s="3">
+        <v>14500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>73900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>23500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="N14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>12400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>14500</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>-800</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,8 +1217,8 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1205,10 +1227,10 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1219,8 +1241,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E17" s="3">
         <v>195300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>180300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>198400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>187500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>265600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>225600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>233700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>221100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>256400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>238700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>496700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>289000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>210600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>152800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>137900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>161700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-73400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1446,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E21" s="3">
         <v>12400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-55000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>55700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>47400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,194 +1592,203 @@
         <v>8000</v>
       </c>
       <c r="E22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-79700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5600</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-1700</v>
       </c>
       <c r="W24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-88100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-88100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,58 +2056,61 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-43800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-84700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-17200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>25700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1300</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-112300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-112300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E41" s="3">
         <v>72200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>73600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>123300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>75600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,279 +2793,294 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>96600</v>
+        <v>178400</v>
       </c>
       <c r="E43" s="3">
+        <v>172300</v>
+      </c>
+      <c r="F43" s="3">
         <v>173800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>170100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>174800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>184600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>180300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>178200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>203700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>235900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>250400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>167200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>192100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>199800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>198200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>223900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>121200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>120300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>133000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E44" s="3">
         <v>136000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>135300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>129100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>144500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>148400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>147200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>137300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>151700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>227000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>218000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>143700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>226000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>244200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>253700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>244900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>180300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>161800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>147900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>149600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>109700</v>
+        <v>33700</v>
       </c>
       <c r="E45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F45" s="3">
         <v>35500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>175100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>268700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>85200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>43100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>29600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>416200</v>
+      </c>
+      <c r="E46" s="3">
         <v>414500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>420200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>406600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>418500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>485900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>548000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>575100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>481900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>573200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>574600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>648000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>574700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>583700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>647400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>638400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>429100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>398500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>367500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>370500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
         <v>9200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13700</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2993,14 +3097,14 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3029,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E48" s="3">
         <v>160800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>168800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>166600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>193000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>197200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>222600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>223100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>189700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>215200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>217500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>226400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>217500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>99000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>98400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>99300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>99700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>471200</v>
+      </c>
+      <c r="E49" s="3">
         <v>485700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>494800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>512500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>515200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>519700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>519400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>657400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>752800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>872700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>883300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1332200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>975400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>980000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1017200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1019100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>340700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>342100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>340100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>342400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E52" s="3">
         <v>31700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>44500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>45400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>44200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>47600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>8100</v>
       </c>
       <c r="V52" s="3">
         <v>8100</v>
       </c>
       <c r="W52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="X52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1090300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1102000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1123200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1130500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1145200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1260400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1309100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1470900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1468100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1712700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1719300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1791600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1812900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1835900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1928100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1906800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>879000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>849200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>815000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>820800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3663,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E57" s="3">
         <v>68200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>90300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>118600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>122300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>115800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>118400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>63700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>63900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3622,23 +3755,23 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7900</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3649,14 +3782,14 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>5000</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>5000</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3664,268 +3797,283 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E59" s="3">
         <v>102000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>98400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>113700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>126700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>181500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>205200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>62000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>71100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>71000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E60" s="3">
         <v>170200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>165500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>165200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>177700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>232400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>236400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>244200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>256400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>249100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>284100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>250300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>252600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>317100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>322500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>134200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>130900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>122500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>117700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>507100</v>
+      </c>
+      <c r="E61" s="3">
         <v>512400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>525600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>507900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>527700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>578600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>589000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>639000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>643100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>731100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>734700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>778200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>802100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>819800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>815800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>787300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>264000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>243000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>251200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E62" s="3">
         <v>236300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>236000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>251400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>210200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>196800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>204100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>205400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>230300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>186400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>189500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>203200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>195000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>905700</v>
+      </c>
+      <c r="E66" s="3">
         <v>919000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>927100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>924500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>924400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>987000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1018200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1079500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1092700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1217800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1203200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1262600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1238700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1261900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1336000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1304800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>427100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>411100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>399400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>416300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-93600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>99300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>97700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>210100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>228600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>232100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>253100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>259900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>254000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>274200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>280400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>277500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>269100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>265500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E76" s="3">
         <v>183000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>196100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>206000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>220800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>273400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>375400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>494900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>516200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>529000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>574200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>574000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>592100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>602000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>451900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>438100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>415500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>404400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-112300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,64 +5226,67 @@
         <v>16100</v>
       </c>
       <c r="E83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F83" s="3">
         <v>17200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>167000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>75700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>79600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-496100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5832,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-600</v>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-51400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-89100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>520500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>158700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>86200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-26700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,333 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>196900</v>
+      </c>
+      <c r="F8" s="3">
         <v>190800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>190300</v>
       </c>
-      <c r="F8" s="3">
-        <v>180700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>208400</v>
-      </c>
       <c r="H8" s="3">
+        <v>176500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J8" s="3">
         <v>186600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>186100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>192200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>242600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>237100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>245800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>238900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>266700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>247200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>499500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>275600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>205600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>159700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>151200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>145200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>158200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>143200</v>
+      </c>
+      <c r="F9" s="3">
         <v>130100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>129500</v>
       </c>
-      <c r="F9" s="3">
-        <v>124600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>140900</v>
-      </c>
       <c r="H9" s="3">
+        <v>124900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>143100</v>
+      </c>
+      <c r="J9" s="3">
         <v>130600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>127100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>132200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>164600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>162600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>163900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>164400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>176700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>167100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>344400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>199300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>146400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>112400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>103600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>98600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>109100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F10" s="3">
         <v>60700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>60800</v>
       </c>
-      <c r="F10" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>67500</v>
-      </c>
       <c r="H10" s="3">
+        <v>51600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>57200</v>
+      </c>
+      <c r="J10" s="3">
         <v>56000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>59000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>78000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>74500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>81900</v>
       </c>
       <c r="N10" s="3">
         <v>74500</v>
       </c>
       <c r="O10" s="3">
+        <v>81900</v>
+      </c>
+      <c r="P10" s="3">
+        <v>74500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>90000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>80100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>155100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>76300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>59200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>47300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>47600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>46600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>49100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,76 +1160,88 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>7700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>73900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>23500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-7800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>8900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>12400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>14500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1220,23 +1266,23 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1244,11 +1290,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1262,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>228300</v>
+      </c>
+      <c r="F17" s="3">
         <v>184100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>195300</v>
       </c>
-      <c r="F17" s="3">
-        <v>180300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>198400</v>
-      </c>
       <c r="H17" s="3">
+        <v>181700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>224900</v>
+      </c>
+      <c r="J17" s="3">
         <v>182200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>187500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>265600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>225600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>246100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>233700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>221100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>256400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>238700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>496700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>289000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>210600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>152800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>139800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>137900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>161700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F18" s="3">
         <v>6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
-        <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="J18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-73400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>17000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>17800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>11400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>7300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="O20" s="3">
+        <v>25900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>25900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F21" s="3">
         <v>22700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>12400</v>
       </c>
-      <c r="F21" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>27400</v>
-      </c>
       <c r="H21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J21" s="3">
         <v>19400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-55000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>55700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>51900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>31800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>27900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>47400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>8100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>12900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>17100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>14000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>4700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="E22" s="3">
         <v>8000</v>
       </c>
       <c r="F22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="3">
         <v>8400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8200</v>
       </c>
       <c r="I22" s="3">
         <v>8500</v>
       </c>
       <c r="J22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>39000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>26300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>13300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>14100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>25600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-79700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-11200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>8200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>5500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
-        <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>15300</v>
-      </c>
       <c r="H24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="3">
         <v>54300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-21800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-5600</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-13100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-58900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-88100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-27600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-16500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-12900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>9000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-13100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-58900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-88100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-27600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-16500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-12900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,64 +2175,70 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-900</v>
       </c>
-      <c r="F29" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-43800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>9200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-84700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-17200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-5700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>25700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>1300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2249,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="O32" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V32" s="3">
+        <v>800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>900</v>
+      </c>
+      <c r="X32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-13900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-58500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-34100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-78900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-112300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-13900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-58500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-34100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-78900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-112300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F41" s="3">
         <v>72000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>72200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>75700</v>
       </c>
-      <c r="G41" s="3">
-        <v>76500</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J41" s="3">
         <v>72800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>125400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>170900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>84500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>69200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>76100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>73600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>68500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>71300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>69000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>123300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>110400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>75600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>77300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>65700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>58300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,297 +2976,327 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>187700</v>
+      </c>
+      <c r="F43" s="3">
         <v>178400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>172300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>173800</v>
       </c>
-      <c r="G43" s="3">
-        <v>170100</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>263600</v>
+      </c>
+      <c r="J43" s="3">
         <v>174800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>184600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>180300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>178200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>203700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>235900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>250400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>167200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>192100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>199800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>198200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>223900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>130200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>121200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>120300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>133000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>123300</v>
+      </c>
+      <c r="F44" s="3">
         <v>132200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>136000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>135300</v>
       </c>
-      <c r="G44" s="3">
-        <v>129100</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>128100</v>
+      </c>
+      <c r="J44" s="3">
         <v>144500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>148400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>147200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>137300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>151700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>227000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>218000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>143700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>226000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>244200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>253700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>244900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>180300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>161800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>147900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>149600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F45" s="3">
         <v>33700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>35500</v>
       </c>
-      <c r="G45" s="3">
-        <v>30900</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J45" s="3">
         <v>26500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>27500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>49600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>175100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>57200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>34200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>32600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>268700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>85200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>70700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>72200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>59200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>43100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>38300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>33500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>29600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>404500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>394200</v>
+      </c>
+      <c r="F46" s="3">
         <v>416200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>414500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>420200</v>
       </c>
-      <c r="G46" s="3">
-        <v>406600</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>384700</v>
+      </c>
+      <c r="J46" s="3">
         <v>418500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>485900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>548000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>575100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>481900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>573200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>574600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>648000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>574700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>583700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>647400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>638400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>429100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>398500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>367500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>370500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>13700</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3100,8 +3310,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3109,8 +3319,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3136,144 +3346,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>154500</v>
+      </c>
+      <c r="F48" s="3">
         <v>158300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>160800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>163400</v>
       </c>
-      <c r="G48" s="3">
-        <v>168800</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>188400</v>
+      </c>
+      <c r="J48" s="3">
         <v>167000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>167200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>166600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>193000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>197200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>222600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>223100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>189700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>215200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>217500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>226400</v>
       </c>
       <c r="S48" s="3">
         <v>217500</v>
       </c>
       <c r="T48" s="3">
+        <v>226400</v>
+      </c>
+      <c r="U48" s="3">
+        <v>217500</v>
+      </c>
+      <c r="V48" s="3">
         <v>99000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>98400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>99300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>99700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>426400</v>
+      </c>
+      <c r="F49" s="3">
         <v>471200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>485700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>494800</v>
       </c>
-      <c r="G49" s="3">
-        <v>512500</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>490500</v>
+      </c>
+      <c r="J49" s="3">
         <v>515200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>519700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>519400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>657400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>752800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>872700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>883300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1332200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>975400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>980000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1017200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1019100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>340700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>342100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>340100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>342400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F52" s="3">
         <v>32500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>31700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>31100</v>
       </c>
-      <c r="G52" s="3">
-        <v>42700</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>61200</v>
+      </c>
+      <c r="J52" s="3">
         <v>44500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>87500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>75000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>45400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>36200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>44200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>38300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>63000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>47600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>54700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>37100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>31700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>10100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>8100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>8100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1011600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1019300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1090300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1102000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1123200</v>
       </c>
-      <c r="G54" s="3">
-        <v>1130500</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="J54" s="3">
         <v>1145200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1260400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1309100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1470900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1468100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1712700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1719300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1791600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1812900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1835900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1928100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1906800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>879000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>849200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>815000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>820800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,84 +3924,92 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>83400</v>
+      </c>
+      <c r="F57" s="3">
         <v>72900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>68200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>67100</v>
       </c>
-      <c r="G57" s="3">
-        <v>61200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>63600</v>
+      </c>
+      <c r="J57" s="3">
         <v>64000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>68200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>76300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>79400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>90300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>118600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>122300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>94700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>111400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>115800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>118400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>117300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>63700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>63900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>51400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>46800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3752,32 +4020,32 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>2400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7900</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3785,295 +4053,325 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>108500</v>
+      </c>
+      <c r="F59" s="3">
         <v>106800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>102000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>98400</v>
       </c>
-      <c r="G59" s="3">
-        <v>104000</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>106300</v>
+      </c>
+      <c r="J59" s="3">
         <v>113700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>130000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>156100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>156500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>153500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>137100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>126700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>181500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>138900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>136800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>198600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>205200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>65500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>62000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>71100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>71000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F60" s="3">
         <v>179700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>170200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>165500</v>
       </c>
-      <c r="G60" s="3">
-        <v>165200</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>172300</v>
+      </c>
+      <c r="J60" s="3">
         <v>177700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>198200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>232400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>236400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>244200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>256400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>249100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>284100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>250300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>252600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>317100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>322500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>134200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>130900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>122500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>117700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>511700</v>
+      </c>
+      <c r="F61" s="3">
         <v>507100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>512400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>525600</v>
       </c>
-      <c r="G61" s="3">
-        <v>507900</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>511300</v>
+      </c>
+      <c r="J61" s="3">
         <v>527700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>578600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>589000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>639000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>643100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>731100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>734700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>778200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>802100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>819800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>815800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>787300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>264000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>247900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>243000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>251200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>180300</v>
+      </c>
+      <c r="F62" s="3">
         <v>218900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>236300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>236000</v>
       </c>
-      <c r="G62" s="3">
-        <v>251400</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>246300</v>
+      </c>
+      <c r="J62" s="3">
         <v>219000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>210200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>196800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>204100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>205400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>230300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>219300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>200400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>186400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>189500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>203200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>195000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>28900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>32400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>33900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>47400</v>
       </c>
       <c r="X62" s="3">
         <v>33900</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>901300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>885600</v>
+      </c>
+      <c r="F66" s="3">
         <v>905700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>919000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>927100</v>
       </c>
-      <c r="G66" s="3">
-        <v>924500</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>930000</v>
+      </c>
+      <c r="J66" s="3">
         <v>924400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>987000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1018200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1079500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1092700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1217800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1203200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1262600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1238700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1261900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1336000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1304800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>427100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>411100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>399400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>416300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-219600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-198100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-108000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-109100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-93600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-86500</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-72500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>20100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>99300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>97700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>210100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>228600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>232100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>253100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>259900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>254000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>274200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>280400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>277500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>269100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>265500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F76" s="3">
         <v>184500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>183000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>196100</v>
       </c>
-      <c r="G76" s="3">
-        <v>206000</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J76" s="3">
         <v>220800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>273400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>290800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>391400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>375400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>494900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>516200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>529000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>574200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>574000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>592100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>602000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>451900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>438100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>415500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>404400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-13900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-58500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-34100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-78900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-112300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F83" s="3">
         <v>16100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>16100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>17200</v>
       </c>
-      <c r="G83" s="3">
-        <v>16700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>15700</v>
-      </c>
       <c r="I83" s="3">
-        <v>15800</v>
+        <v>16800</v>
       </c>
       <c r="J83" s="3">
         <v>15700</v>
       </c>
       <c r="K83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>16100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>17700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>18800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>39100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>19700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>9700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>6800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>6700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>6900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F89" s="3">
         <v>11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-17700</v>
       </c>
-      <c r="G89" s="3">
-        <v>23600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-24900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>12300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-22400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>24100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>7600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-16900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>16200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>20400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>167000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>75700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>79600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-496100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-200900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6068,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-600</v>
@@ -6085,8 +6553,14 @@
       <c r="X96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-20500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-51600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-51400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-89100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-53100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-26300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-29700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>20200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>520500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>8300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-8500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>158700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-5800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-4900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-52500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-45500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>86200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-41500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>12900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>34700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>11600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>7400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-26700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E8" s="3">
         <v>185700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>196900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>190800</v>
       </c>
-      <c r="G8" s="3">
-        <v>190300</v>
-      </c>
       <c r="H8" s="3">
+        <v>187600</v>
+      </c>
+      <c r="I8" s="3">
         <v>176500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>186600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>186100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>192200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>242600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>237100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>245800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>238900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>266700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>247200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>499500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>275600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>205600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>159700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>151200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>145200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>158200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E9" s="3">
         <v>130400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>130100</v>
       </c>
-      <c r="G9" s="3">
-        <v>129500</v>
-      </c>
       <c r="H9" s="3">
+        <v>260700</v>
+      </c>
+      <c r="I9" s="3">
         <v>124900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>130600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>164600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>162600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>164400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>176700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>167100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>344400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>199300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>146400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>112400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>103600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>98600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>109100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60700</v>
       </c>
-      <c r="G10" s="3">
-        <v>60800</v>
-      </c>
       <c r="H10" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="I10" s="3">
         <v>51600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>74500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>81900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>74500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>90000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>80100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>155100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>76300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>59200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>46600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>49100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>73900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,8 +1295,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1282,10 +1305,10 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1296,8 +1319,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E17" s="3">
         <v>197400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>228300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184100</v>
       </c>
-      <c r="G17" s="3">
-        <v>195300</v>
-      </c>
       <c r="H17" s="3">
+        <v>196100</v>
+      </c>
+      <c r="I17" s="3">
         <v>181700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>224900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>182200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>187500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>225600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>246100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>233700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>221100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>256400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>238700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>496700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>289000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>210600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>152800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>139800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>137900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>161700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>17800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-73400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>17000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>12100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>17800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>10300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>8500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,164 +1548,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
       <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22700</v>
       </c>
-      <c r="G21" s="3">
-        <v>12400</v>
-      </c>
       <c r="H21" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I21" s="3">
         <v>13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-55000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>51900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>47400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>17100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8000</v>
       </c>
       <c r="F22" s="3">
         <v>8000</v>
@@ -1681,212 +1721,221 @@
         <v>8000</v>
       </c>
       <c r="H22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3">
         <v>8400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-11700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-11900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-79700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>3000</v>
-      </c>
       <c r="H24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>54300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-21800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5600</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>-1700</v>
       </c>
       <c r="Z24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-14700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-46300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-58900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-88100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-46300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-58900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-88100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,55 +2254,55 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2500</v>
       </c>
-      <c r="G29" s="3">
-        <v>-900</v>
-      </c>
       <c r="H29" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-43800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-84700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-17200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>25700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1300</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-15600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-58500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-112300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-15600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-58500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-112300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E41" s="3">
         <v>61100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>76100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>73600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>123300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>110400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>75600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>77300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,324 +3072,339 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E43" s="3">
         <v>180700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>187700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>178400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>172300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>173800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>263600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>174800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>184600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>180300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>178200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>203700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>235900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>250400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>167200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>192100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>199800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>198200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>223900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>130200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>121200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>120300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>133000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E44" s="3">
         <v>134500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>132200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>136000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>135300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>128100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>144500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>148400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>147200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>137300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>151700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>227000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>218000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>143700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>226000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>244200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>253700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>244900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>180300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>161800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>147900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>149600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E45" s="3">
         <v>28100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>175100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>268700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>85200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>43100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>33500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>29600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>402500</v>
+      </c>
+      <c r="E46" s="3">
         <v>404500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>394200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>416200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>414500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>420200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>384700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>418500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>485900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>548000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>575100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>481900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>573200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>574600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>648000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>574700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>583700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>647400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>638400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>429100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>398500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>367500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>370500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E47" s="3">
         <v>7300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3316,14 +3421,14 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E48" s="3">
         <v>150500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>158300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>160800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>163400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>188400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>167000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>167200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>166600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>193000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>197200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>222600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>223100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>215200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>217500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>226400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>217500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>99000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>99300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>99700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E49" s="3">
         <v>412600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>426400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>471200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>485700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>494800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>490500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>515200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>519700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>519400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>657400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>752800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>872700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>883300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1332200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>975400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>980000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1017200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1019100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>340700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>342100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>340100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>342400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E52" s="3">
         <v>36700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>44200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>47600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>54700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>37100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10300</v>
-      </c>
-      <c r="X52" s="3">
-        <v>8100</v>
       </c>
       <c r="Y52" s="3">
         <v>8100</v>
       </c>
       <c r="Z52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>989400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1011600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1019300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1090300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1102000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1123200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1082900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1145200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1260400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1309100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1470900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1468100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1712700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1719300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1791600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1812900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1835900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1928100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1906800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>879000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>849200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>815000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>820800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,93 +4056,97 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E57" s="3">
         <v>83100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>90300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>122300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>94700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>111400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>115800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>118400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>117300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>63700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>63900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>51400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4020,11 +4154,11 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>2400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4032,23 +4166,23 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7900</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4059,14 +4193,14 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>5000</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="X58" s="3">
+        <v>5000</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4074,304 +4208,319 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E59" s="3">
         <v>106300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>108500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>106300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>113700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>126700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>181500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>136800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>205200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>65500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>71100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>71000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E60" s="3">
         <v>191900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>193500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>179700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>165500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>172300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>177700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>232400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>236400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>244200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>256400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>249100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>284100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>250300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>252600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>317100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>322500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>134200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>130900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>122500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>117700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E61" s="3">
         <v>532600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>511700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>507100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>512400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>525600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>511300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>527700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>578600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>589000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>639000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>643100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>731100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>734700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>778200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>802100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>819800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>815800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>787300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>264000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>247900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>243000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>251200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E62" s="3">
         <v>176800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>180300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>218900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>236300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>236000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>246300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>219000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>210200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>196800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>204100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>205400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>230300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>219300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>186400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>189500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>203200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>195000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>28900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>47400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>885800</v>
+      </c>
+      <c r="E66" s="3">
         <v>901300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>885600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>905700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>919000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>927100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>924400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>987000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1018200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1079500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1092700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1217800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1203200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1262600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1238700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1261900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1336000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1304800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>427100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>411100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>399400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>416300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-219600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-93600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-136400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>99300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>97700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>210100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>228600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>232100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>253100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>259900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>254000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>274200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>280400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>277500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>269100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>265500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E76" s="3">
         <v>110300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>184500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>183000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>196100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>220800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>273400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>290800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>375400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>494900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>516200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>529000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>574200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>574000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>592100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>602000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>451900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>438100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>415500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>404400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-15600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-58500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-112300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E83" s="3">
         <v>14400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16100</v>
       </c>
       <c r="G83" s="3">
         <v>16100</v>
       </c>
       <c r="H83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I83" s="3">
         <v>17200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-16900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>20400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>167000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>75700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>79600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-496100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6542,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-600</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E100" s="3">
         <v>20600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-89100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-53100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-29700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>520500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>158700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-52500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>86200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-41500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-26700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E8" s="3">
         <v>191400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>185700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196900</v>
       </c>
-      <c r="G8" s="3">
-        <v>190800</v>
-      </c>
       <c r="H8" s="3">
+        <v>189700</v>
+      </c>
+      <c r="I8" s="3">
         <v>187600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>176500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>186600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>186100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>192200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>242600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>237100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>245800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>238900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>266700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>247200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>499500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>275600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>205600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>159700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>151200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>145200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>158200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E9" s="3">
         <v>133200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143200</v>
       </c>
-      <c r="G9" s="3">
-        <v>130100</v>
-      </c>
       <c r="H9" s="3">
+        <v>262000</v>
+      </c>
+      <c r="I9" s="3">
         <v>260700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>164600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>163900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>164400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>176700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>167100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>344400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>199300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>146400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>112400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>103600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>98600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>109100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E10" s="3">
         <v>58200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>53700</v>
       </c>
-      <c r="G10" s="3">
-        <v>60700</v>
-      </c>
       <c r="H10" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="I10" s="3">
         <v>-73100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>74500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>74500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>90000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>80100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>155100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>76300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>59200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>46600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>49100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>73900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-7800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>8000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1308,10 +1331,10 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E17" s="3">
         <v>179500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>197400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>228300</v>
       </c>
-      <c r="G17" s="3">
-        <v>184100</v>
-      </c>
       <c r="H17" s="3">
+        <v>186300</v>
+      </c>
+      <c r="I17" s="3">
         <v>196100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>181700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>187500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>265600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>225600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>246100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>233700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>221100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>256400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>238700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>496700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>289000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>210600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>152800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>139800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>137900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>161700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E18" s="3">
         <v>11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31400</v>
       </c>
-      <c r="G18" s="3">
-        <v>6700</v>
-      </c>
       <c r="H18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-73400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,173 +1582,180 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>25900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="AA20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>25900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>15300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E21" s="3">
         <v>27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14400</v>
       </c>
-      <c r="G21" s="3">
-        <v>22700</v>
-      </c>
       <c r="H21" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I21" s="3">
         <v>8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-55000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>47400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>17100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E22" s="3">
         <v>10200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8000</v>
       </c>
       <c r="G22" s="3">
         <v>8000</v>
@@ -1724,218 +1764,227 @@
         <v>8000</v>
       </c>
       <c r="I22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-15200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-79700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
       <c r="H24" s="3">
+        <v>900</v>
+      </c>
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-21800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13900</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5600</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>-1700</v>
       </c>
       <c r="AA24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-88100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-88100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,55 +2318,55 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-43800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-84700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>25700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1300</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X32" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="AA32" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>800</v>
-      </c>
-      <c r="X32" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40100</v>
       </c>
-      <c r="G33" s="3">
-        <v>1100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-58500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-78900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-112300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40100</v>
       </c>
-      <c r="G35" s="3">
-        <v>1100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-58500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-78900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-112300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E41" s="3">
         <v>55200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>76100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>73600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>123300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>75600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>77300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>65700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>58300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,339 +3165,354 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E43" s="3">
         <v>187300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>180700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>187700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>178400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>172300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>173800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>263600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>174800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>184600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>180300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>178200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>235900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>250400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>167200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>192100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>199800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>198200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>223900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>130200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>121200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>120300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>133000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E44" s="3">
         <v>134200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>132200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>136000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>135300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>128100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>148400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>147200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>137300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>151700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>227000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>218000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>143700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>226000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>244200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>253700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>244900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>180300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>161800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>147900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>149600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E45" s="3">
         <v>25800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>175100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>268700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>85200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>43100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>38300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>33500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>29600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E46" s="3">
         <v>402500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>404500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>394200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>416200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>414500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>420200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>384700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>418500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>485900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>548000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>575100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>481900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>573200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>574600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>648000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>574700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>583700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>647400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>638400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>429100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>398500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>367500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>370500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E47" s="3">
         <v>7800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3424,14 +3529,14 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E48" s="3">
         <v>139100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>158300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>160800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>188400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>167000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>167200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>166600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>193000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>197200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>222600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>223100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>189700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>215200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>217500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>226400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>217500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>99000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>98400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>99300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>99700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>375400</v>
+      </c>
+      <c r="E49" s="3">
         <v>393200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>412600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>426400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>471200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>485700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>494800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>490500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>515200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>519700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>519400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>657400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>752800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>872700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>883300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1332200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>975400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>980000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1017200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1019100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>340700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>342100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>340100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>342400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E52" s="3">
         <v>46800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>63000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>47600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>37100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10300</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>8100</v>
       </c>
       <c r="Z52" s="3">
         <v>8100</v>
       </c>
       <c r="AA52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="AB52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>980000</v>
+      </c>
+      <c r="E54" s="3">
         <v>989400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1011600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1019300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1090300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1102000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1123200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1082900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1145200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1260400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1309100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1470900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1468100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1712700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1719300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1791600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1812900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1835900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1928100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1906800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>879000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>849200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>815000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>820800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E57" s="3">
         <v>83200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>64000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>79400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>90300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>122300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>94700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>111400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>118400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>117300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>63700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>63900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>51400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>46800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4157,11 +4291,11 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>2400</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -4169,23 +4303,23 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7900</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4196,14 +4330,14 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>5000</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>5000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>5000</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4211,316 +4345,331 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E59" s="3">
         <v>106700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>108500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>98400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>106300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>130000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>181500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>136800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>205200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>65500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>62000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>71100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>71000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E60" s="3">
         <v>189900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>191900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>193500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>179700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>165500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>172300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>177700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>198200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>232400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>236400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>244200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>256400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>249100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>284100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>250300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>252600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>317100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>322500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>134200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>130900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>122500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>117700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>501800</v>
+      </c>
+      <c r="E61" s="3">
         <v>521000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>532600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>511700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>507100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>512400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>525600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>511300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>527700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>578600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>589000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>639000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>643100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>731100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>734700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>778200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>802100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>819800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>815800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>787300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>264000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>247900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>243000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>251200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E62" s="3">
         <v>174900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>180300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>236300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>236000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>246300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>210200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>196800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>204100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>205400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>230300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>219300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>186400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>189500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>203200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>195000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>28900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>32400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>33900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>47400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>857900</v>
+      </c>
+      <c r="E66" s="3">
         <v>885800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>901300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>885600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>905700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>919000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>927100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>930000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>924400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>987000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1018200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1079500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1092700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1217800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1203200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1262600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1238700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1261900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1336000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1304800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>427100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>411100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>399400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>416300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-215600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-219600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-93600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-136400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>99300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>97700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>210100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>228600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>232100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>253100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>259900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>254000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>274200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>280400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>277500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>269100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>265500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E76" s="3">
         <v>103700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>183000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>196100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>152900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>220800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>273400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>290800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>391400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>375400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>494900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>516200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>529000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>574200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>574000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>592100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>602000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>451900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>438100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>415500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>404400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40100</v>
       </c>
-      <c r="G81" s="3">
-        <v>1100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-58500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-78900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-112300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>16100</v>
       </c>
       <c r="H83" s="3">
         <v>16100</v>
       </c>
       <c r="I83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J83" s="3">
         <v>17200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-16900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>20400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E94" s="3">
         <v>22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>167000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>75700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>79600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-496100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-600</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-53100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>20200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>520500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>158700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-300</v>
-      </c>
       <c r="G101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>86200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-41500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>34700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-26700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>214500</v>
+      </c>
+      <c r="F8" s="3">
         <v>195400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>191400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>185700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>196900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>189700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>187600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>176500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>186600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>186100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>192200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>242600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>237100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>245800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>238900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>266700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>247200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>499500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>275600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>205600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>159700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>151200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>145200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>158200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>138200</v>
+      </c>
+      <c r="F9" s="3">
         <v>128100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>133200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>130400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>143200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>262000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>260700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>124900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>143100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>130600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>127100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>132200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>164600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>162600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>163900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>164400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>176700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>167100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>344400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>199300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>146400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>112400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>103600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>98600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>109100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F10" s="3">
         <v>67300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>58200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>53700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-72300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-73100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>51600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>56000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>59000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>60000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>78000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>74500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>81900</v>
       </c>
       <c r="R10" s="3">
         <v>74500</v>
       </c>
       <c r="S10" s="3">
+        <v>81900</v>
+      </c>
+      <c r="T10" s="3">
+        <v>74500</v>
+      </c>
+      <c r="U10" s="3">
         <v>90000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>80100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>155100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>76300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>59200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>47300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>47600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>46600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>49100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,111 +1240,123 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-25700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-5700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>23300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>73900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>23500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>4200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-7800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>8900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>12400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>14500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>8000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1324,23 +1370,23 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>100</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1348,11 +1394,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>194400</v>
+      </c>
+      <c r="F17" s="3">
         <v>152800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>179500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>197400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>228300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>186300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>196100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>181700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>224900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>182200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>187500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>265600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>225600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>246100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>233700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>221100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>256400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>238700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>496700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>289000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>210600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>152800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>139800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>137900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>161700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F18" s="3">
         <v>42600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-31400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-24600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-73400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>17000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>12100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>17800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>8500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-13400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>11400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>7300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1649,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>1300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>25900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>15300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F21" s="3">
         <v>59000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>19800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-55000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>32100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>55700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>51900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>31800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>27900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>47400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>8100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>12900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>17100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>14000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>4700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F22" s="3">
         <v>11800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>9500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8000</v>
       </c>
       <c r="I22" s="3">
         <v>8000</v>
       </c>
       <c r="J22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L22" s="3">
         <v>8400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8200</v>
       </c>
       <c r="M22" s="3">
         <v>8500</v>
       </c>
       <c r="N22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>39000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>26300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>14100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>25600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>2200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1700</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F23" s="3">
         <v>33100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-38200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-79700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-17300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-23300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-11200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>8200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>5500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>54300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-21800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13900</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-5600</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>31500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-40100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-17900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-46300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-58900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-88100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-16500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-12900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-17400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>9000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>4800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>31500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-40100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-17900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-46300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-58900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-88100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-16500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-12900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-17400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>9000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>4800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2419,19 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2321,58 +2443,58 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-1800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-43800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>9200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-84700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-17200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-5700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>25700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-2900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>1300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2677,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-1300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-25900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-15300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>31500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-40100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-47100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-58500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-34100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-78900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-17400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>9000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>4800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>31500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-40100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-47100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-58500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-34100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-78900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-17400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>9000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>4800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3180,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F41" s="3">
         <v>47100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>55200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>61100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>59900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>72000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>72200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>75700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>66900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>72800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>125400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>170900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>84500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>69200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>76100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>73600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>68500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>71300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>69000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>123300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>110400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>75600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>77300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>65700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>58300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,357 +3348,387 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>208200</v>
+      </c>
+      <c r="F43" s="3">
         <v>194700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>187300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>180700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>187700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>178400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>172300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>173800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>263600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>174800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>184600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>180300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>178200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>203700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>235900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>250400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>167200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>192100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>199800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>198200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>223900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>130200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>121200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>120300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>133000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>139800</v>
+      </c>
+      <c r="F44" s="3">
         <v>137400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>134200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>134500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>123300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>132200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>136000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>135300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>128100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>144500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>148400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>147200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>137300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>151700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>227000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>218000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>143700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>226000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>244200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>253700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>244900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>180300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>161800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>147900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>149600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F45" s="3">
         <v>26200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>28100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>23200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>34000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>35500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>26500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>27500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>49600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>175100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>57200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>34200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>32600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>268700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>85200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>70700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>72200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>59200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>43100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>38300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>33500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>29600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>431600</v>
+      </c>
+      <c r="F46" s="3">
         <v>405400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>402500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>404500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>394200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>416200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>414500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>420200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>384700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>418500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>485900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>548000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>575100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>481900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>573200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>574600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>648000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>574700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>583700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>647400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>638400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>429100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>398500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>367500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>370500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F47" s="3">
         <v>6400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>12000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>9200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13700</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3532,8 +3742,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3541,8 +3751,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3568,168 +3778,186 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>226100</v>
+      </c>
+      <c r="F48" s="3">
         <v>171300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>139100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>150500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>154500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>158300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>160800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>163400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>188400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>167000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>167200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>166600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>193000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>197200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>222600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>223100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>189700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>215200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>217500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>226400</v>
       </c>
       <c r="W48" s="3">
         <v>217500</v>
       </c>
       <c r="X48" s="3">
+        <v>226400</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>217500</v>
+      </c>
+      <c r="Z48" s="3">
         <v>99000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>98400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>99300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>99700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>369500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>376200</v>
+      </c>
+      <c r="F49" s="3">
         <v>375400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>393200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>412600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>426400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>471200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>485700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>494800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>490500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>515200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>519700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>519400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>657400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>752800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>872700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>883300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1332200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>975400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>980000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1017200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1019100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>340700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>342100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>340100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>342400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4122,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
         <v>21600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>46800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>36700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>32500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>31700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>61200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>44500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>87500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>75000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>45400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>36200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>44200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>38300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>63000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>47600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>54700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>37100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>31700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>10100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>10300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>8100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>8100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4294,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="F54" s="3">
         <v>980000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>989400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1011600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1019300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1090300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1102000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1123200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1082900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1145200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1260400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1309100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1470900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1468100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1712700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1719300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1791600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1812900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1835900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1928100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1906800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>879000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>849200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>815000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>820800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,144 +4448,152 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>78800</v>
+      </c>
+      <c r="F57" s="3">
         <v>71600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>83200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>83100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>83400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>72900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>68200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>67100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>63600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>64000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>68200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>76300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>79400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>90300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>118600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>122300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>94700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>111400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>115800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>118400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>117300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>63700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>63900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>51400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>46800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>2400</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>2400</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7900</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4333,343 +4601,373 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5000</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>115300</v>
+      </c>
+      <c r="F59" s="3">
         <v>105300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>106700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>106300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>108500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>106800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>102000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>98400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>106300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>113700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>130000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>156100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>156500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>153500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>137100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>126700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>181500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>138900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>136800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>198600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>205200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>65500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>62000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>71100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>71000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>194100</v>
+      </c>
+      <c r="F60" s="3">
         <v>176900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>189900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>191900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>193500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>179700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>170200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>165500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>172300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>177700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>198200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>232400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>236400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>244200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>256400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>249100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>284100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>250300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>252600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>317100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>322500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>134200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>130900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>122500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>117700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500800</v>
+      </c>
+      <c r="F61" s="3">
         <v>501800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>521000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>532600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>511700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>507100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>512400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>525600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>511300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>527700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>578600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>589000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>639000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>643100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>731100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>734700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>778200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>802100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>819800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>815800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>787300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>264000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>247900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>243000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>251200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F62" s="3">
         <v>179200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>174900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>176800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>180300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>218900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>236300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>236000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>246300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>219000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>210200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>196800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>204100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>205400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>230300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>219300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>200400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>186400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>189500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>203200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>195000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>28900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>32400</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>33900</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>47400</v>
       </c>
       <c r="AB62" s="3">
         <v>33900</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>854500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>853600</v>
+      </c>
+      <c r="F66" s="3">
         <v>857900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>885800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>901300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>885600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>905700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>919000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>927100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>930000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>924400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>987000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1018200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1079500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1092700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1217800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1203200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1262600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1238700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1261900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1336000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1304800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>427100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>411100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>399400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>416300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-179100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-184100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-215600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-219600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-198100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-108000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-93600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-136400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-72500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>99300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>97700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>210100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>228600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>232100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>253100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>259900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>254000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>274200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>280400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>277500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>269100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>265500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6024,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F76" s="3">
         <v>122100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>103700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>110300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>133700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>184500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>196100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>152900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>220800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>273400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>290800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>391400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>375400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>494900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>516200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>529000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>574200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>574000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>592100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>602000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>451900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>438100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>415500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>404400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>31500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-40100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-47100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-58500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-34100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-78900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-17400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>9000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>4800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F83" s="3">
         <v>14100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>16100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>16100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>16800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>15700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>15800</v>
       </c>
       <c r="N83" s="3">
         <v>15700</v>
       </c>
       <c r="O83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="P83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>17000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>16100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>17700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>18800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>39100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>19700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>9700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>6800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>6700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>6900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>8400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-24900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-23900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-22400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>30500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>24100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>7600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>2700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>16200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>20400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-8200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F94" s="3">
         <v>25500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-13300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>167000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>75700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>79600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-5400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-8100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-496100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-200900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7016,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-600</v>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7759,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-20200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-21600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>20600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-14700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>13900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-20500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-51600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-10300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-51400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-53100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-26300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-18100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-29700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>20200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>520500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>15200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>8300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>158700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>2300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-52500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-45500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>86200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>15500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-41500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>12900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>34700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>11600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>7400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-26700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>12000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>CIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E8" s="3">
         <v>203100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>214500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>195400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>191400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>185700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>196900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>189700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>187600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>186600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>186100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>192200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>242600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>237100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>245800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>238900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>266700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>247200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>499500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>275600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>205600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>159700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>151200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>145200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>158200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>134800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E9" s="3">
         <v>129000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>138200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>133200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>130400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>262000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>260700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>143100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>130600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>164600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>163900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>164400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>176700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>167100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>344400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>199300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>146400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>112400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>103600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>98600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>109100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E10" s="3">
         <v>74100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>76300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-72300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-73100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>78000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>74500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>81900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>74500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>90000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>80100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>155100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>76300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>59200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>47300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>47600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>46600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>49100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-25700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>73900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-7800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>8000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,8 +1380,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1376,8 +1398,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1386,10 +1408,10 @@
         <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1400,8 +1422,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>199300</v>
+      </c>
+      <c r="E17" s="3">
         <v>185200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>152800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>179500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>197400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>228300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>186300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>196100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>181700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>224900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>182200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>187500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>265600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>225600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>246100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>233700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>221100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>256400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>238700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>496700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>289000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>210600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>152800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>139800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>137900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>161700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>11400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,200 +1683,207 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="3">
         <v>30300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>51900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>47400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>17100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>14000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8000</v>
       </c>
       <c r="J22" s="3">
         <v>8000</v>
@@ -1853,236 +1892,245 @@
         <v>8000</v>
       </c>
       <c r="L22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1700</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1700</v>
       </c>
       <c r="F24" s="3">
         <v>1700</v>
       </c>
       <c r="G24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-21800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13900</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-4400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>-1700</v>
       </c>
       <c r="AD24" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-58900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-58900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>9000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2449,55 +2509,55 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-43800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>9200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-84700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-17200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-5700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>25700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1300</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-58500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-112300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-58500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-112300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E41" s="3">
         <v>52100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>76100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>73600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>68500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>69000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>123300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>110400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>75600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>77300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>65700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>58300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>84900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,384 +3443,399 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E43" s="3">
         <v>206900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>208200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>194700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>187300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>180700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>187700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>178400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>172300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>263600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>174800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>184600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>180300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>178200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>203700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>235900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>250400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>167200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>192100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>199800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>198200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>223900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>130200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>121200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>120300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>133000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>112100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E44" s="3">
         <v>157000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>139800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>137400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>123300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>132200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>136000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>135300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>128100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>144500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>148400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>147200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>137300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>151700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>227000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>218000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>143700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>226000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>244200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>253700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>244900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>180300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>161800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>147900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>149600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E45" s="3">
         <v>24800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>175100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>268700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>85200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>70700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>43100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>38300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>33500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>29600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>462700</v>
+      </c>
+      <c r="E46" s="3">
         <v>440700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>431600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>405400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>402500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>404500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>394200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>416200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>414500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>420200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>384700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>418500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>485900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>548000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>575100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>481900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>573200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>574600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>648000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>574700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>583700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>647400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>638400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>429100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>398500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>367500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>370500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>368500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E47" s="3">
         <v>8100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13700</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3748,14 +3852,14 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3784,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E48" s="3">
         <v>183500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>150500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>160800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>163400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>188400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>167000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>167200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>166600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>193000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>197200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>222600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>223100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>189700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>215200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>217500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>226400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>217500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>99000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>98400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>99300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>99700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>360900</v>
+      </c>
+      <c r="E49" s="3">
         <v>369500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>376200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>375400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>393200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>412600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>426400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>471200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>485700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>494800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>490500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>515200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>519700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>519400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>657400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>752800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>872700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>883300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1332200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>975400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>980000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1017200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1019100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>340700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>342100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>340100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>342400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E52" s="3">
         <v>13900</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>44500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>45400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>44200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>47600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>54700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>37100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>31700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10300</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>8100</v>
       </c>
       <c r="AC52" s="3">
         <v>8100</v>
       </c>
       <c r="AD52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="AE52" s="3">
         <v>48700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1026700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1015700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1012700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>980000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>989400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1011600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1019300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1090300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1102000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1123200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1082900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1145200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1260400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1309100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1470900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1468100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1712700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1719300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1791600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1812900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1835900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1928100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1906800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>879000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>849200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>815000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>820800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>656700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,102 +4579,106 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E57" s="3">
         <v>80200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>78800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>71600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>64000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>76300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>79400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>90300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>122300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>94700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>111400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>115800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>118400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>117300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>63700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>63900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>51400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>46800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4554,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4568,11 +4701,11 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>2400</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -4580,23 +4713,23 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7900</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4607,14 +4740,14 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>5000</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>5000</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
+      <c r="AB58" s="3">
+        <v>5000</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
@@ -4622,352 +4755,367 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E59" s="3">
         <v>111800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>115300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>106300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>108500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>106800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>113700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>130000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>137100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>126700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>181500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>136800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>198600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>205200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>65500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>62000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>71100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>71000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E60" s="3">
         <v>192000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>194100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>176900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>189900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>191900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>193500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>179700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>165500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>177700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>198200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>232400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>236400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>244200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>256400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>249100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>284100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>250300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>252600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>317100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>322500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>134200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>130900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>122500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>117700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>113800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>510900</v>
+      </c>
+      <c r="E61" s="3">
         <v>500000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>501800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>521000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>532600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>511700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>507100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>512400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>525600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>511300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>527700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>578600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>589000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>639000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>643100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>731100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>734700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>778200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>802100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>819800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>815800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>787300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>264000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>247900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>243000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>251200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>92400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E62" s="3">
         <v>162400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>179200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>174900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>176800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>180300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>236300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>236000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>246300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>219000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>210200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>196800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>204100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>205400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>230300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>219300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>200400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>186400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>189500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>203200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>195000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>28900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>32400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>33900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>47400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>873700</v>
+      </c>
+      <c r="E66" s="3">
         <v>854500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>853600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>857900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>885800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>901300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>885600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>905700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>919000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>927100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>930000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>924400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>987000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1018200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1079500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1092700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1217800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1203200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1262600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1238700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1261900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1336000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1304800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>427100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>411100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>399400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>416300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-187700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-179100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-184100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-215600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-219600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-108000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-93600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-136400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>97700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>210100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>228600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>232100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>253100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>259900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>254000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>274200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>280400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>277500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>269100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>265500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>268200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E76" s="3">
         <v>161200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>159000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>103700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>196100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>152900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>220800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>273400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>290800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>391400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>375400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>494900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>516200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>529000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>574200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>574000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>592100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>602000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>451900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>438100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>415500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>404400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>416600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-58500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-112300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>16100</v>
       </c>
       <c r="K83" s="3">
         <v>16100</v>
       </c>
       <c r="L83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="M83" s="3">
         <v>17200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>6900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-16900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>16200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>20400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>25500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>167000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>75700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>79600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-496100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-200900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7490,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-600</v>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-53100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-29700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>20200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>520500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>15200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>158700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>86200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-41500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>34700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>7400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-26700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>12000</v>
       </c>
     </row>
